--- a/data/income_statement/3digits/total/233_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/233_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>233-Manufacture of clay building materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>233-Manufacture of clay building materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2813527.912080001</v>
+        <v>2813527.91208</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>3361894.46909</v>
@@ -962,31 +868,36 @@
         <v>4794440.612989999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5466268.273569999</v>
+        <v>5466268.27357</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>6297814.280649999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5149276.105269999</v>
+        <v>7162000.292130001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7692896.0044</v>
+        <v>7708576.7109</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9006870.405689999</v>
+        <v>9006870.405690001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10920379.59866</v>
+        <v>10927267.76337</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10835438.85671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10984395.77365</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15511060.601</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2177196.25601</v>
@@ -995,7 +906,7 @@
         <v>2621912.66061</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3190966.295309999</v>
+        <v>3190966.29531</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>3678110.82744</v>
@@ -1007,34 +918,39 @@
         <v>4943559.57801</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4252267.695900001</v>
+        <v>5721036.72872</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6049820.15503</v>
+        <v>6065420.73601</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6907960.57916</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7951556.03363</v>
+        <v>7958444.198340001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7122081.36078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7264190.85442</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10143638.544</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>595035.7283</v>
+        <v>595035.7283000001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>699908.21212</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>886273.0155600001</v>
+        <v>886273.01556</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>1070275.98468</v>
@@ -1046,7 +962,7 @@
         <v>1293786.37568</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>832816.67018</v>
+        <v>1373491.64102</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1556076.88952</v>
@@ -1058,13 +974,18 @@
         <v>2813192.15954</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3592067.86281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3592213.68601</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5121857.352</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>41295.92777</v>
@@ -1073,10 +994,10 @@
         <v>40073.59636</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>51005.17090999999</v>
+        <v>51005.17091</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>46053.80087</v>
+        <v>46053.80087000001</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>55876.22764</v>
@@ -1085,10 +1006,10 @@
         <v>60468.32696</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>64191.73919</v>
+        <v>67471.92239000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>86998.95985</v>
+        <v>87079.08537</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>123733.61421</v>
@@ -1097,13 +1018,18 @@
         <v>155631.40549</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>121289.63312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>127991.23322</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>245564.705</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>193088.1947</v>
@@ -1124,31 +1050,36 @@
         <v>475201.25958</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>192884.41717</v>
+        <v>724639.59835</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>797158.3181099999</v>
+        <v>797158.6061100001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>836890.42135</v>
+        <v>836890.4213500001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1147269.53185</v>
+        <v>1147269.62665</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1157743.51104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1162594.60712</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1498459.607</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>33588.83516</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>39375.04607000001</v>
+        <v>39375.04606999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>32446.73256</v>
@@ -1160,13 +1091,13 @@
         <v>42615.26213</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>41627.09309999999</v>
+        <v>41627.0931</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>39196.68695999999</v>
+        <v>48657.43487</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>118183.48239</v>
+        <v>118183.77039</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>70685.93129000001</v>
@@ -1175,13 +1106,18 @@
         <v>80898.02201</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>82814.65026000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>83718.931</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>84828.20600000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>148531.32948</v>
@@ -1190,7 +1126,7 @@
         <v>190705.77177</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>279361.04111</v>
+        <v>279361.0411099999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>286864.18009</v>
@@ -1202,7 +1138,7 @@
         <v>417337.50762</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>142038.01979</v>
+        <v>661817.2519800001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>663955.7992900001</v>
@@ -1211,16 +1147,21 @@
         <v>747580.20921</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1015913.33355</v>
+        <v>1015913.42835</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1039459.20481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1039462.07095</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1354653.512</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>10968.03006</v>
@@ -1241,7 +1182,7 @@
         <v>16236.65886</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>11649.71042</v>
+        <v>14164.9115</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>15019.03643</v>
@@ -1253,22 +1194,27 @@
         <v>50458.17629</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>35469.65597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39413.60517</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>58977.889</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2620439.71738</v>
+        <v>2620439.717380001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>3118328.99808</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3796394.46845</v>
+        <v>3796394.468450001</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>4361014.31163</v>
@@ -1280,25 +1226,30 @@
         <v>5822613.02107</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4956391.688100001</v>
+        <v>6437360.693779999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6895737.68629</v>
+        <v>6911418.104790001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8169979.98434</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9773110.066809999</v>
+        <v>9779998.13672</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9677695.345670002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9821801.166529998</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14012600.994</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1985780.30459</v>
@@ -1319,25 +1270,30 @@
         <v>4409575.80306</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3736493.77987</v>
+        <v>4819558.73358</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5137927.22073</v>
+        <v>5152050.661970001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6045159.330990001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7183690.335320001</v>
+        <v>7190098.719529999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7484645.43087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7618259.016630001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10082630.813</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1711261.50698</v>
@@ -1358,25 +1314,30 @@
         <v>3643791.47685</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3231151.090090001</v>
+        <v>4120950.42479</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4468885.374860001</v>
+        <v>4483008.816099999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5134225.9364</v>
+        <v>5134225.936400001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6022065.917739999</v>
+        <v>6027984.860530001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6467722.29842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6555470.717799999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8580785.514</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>198108.26522</v>
@@ -1397,7 +1358,7 @@
         <v>580211.3246899999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>381775.63426</v>
+        <v>494254.77455</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>506847.09997</v>
@@ -1406,16 +1367,21 @@
         <v>669081.68446</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>899272.9803100001</v>
+        <v>899734.9021800001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>811708.58552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>854774.8843799999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1337895.295</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>67211.55931</v>
@@ -1436,7 +1402,7 @@
         <v>86455.07031</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>98046.14435999999</v>
+        <v>98046.14436000001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>75304.00803</v>
@@ -1445,19 +1411,24 @@
         <v>103583.94284</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>128591.33864</v>
+        <v>128618.85819</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>146399.17546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>149198.04298</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>58941.86</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>9198.973080000002</v>
+        <v>9198.97308</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>11808.41339</v>
@@ -1472,10 +1443,10 @@
         <v>27030.59826</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>99117.93121000001</v>
+        <v>99117.93121</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>25520.91116</v>
+        <v>106307.38988</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>86890.73787000001</v>
@@ -1487,22 +1458,27 @@
         <v>133760.09863</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>58815.37146999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>58815.37147</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>105008.144</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>634659.41279</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>809371.50637</v>
+        <v>809371.5063700001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>979768.0984199999</v>
+        <v>979768.0984199998</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>991496.3528</v>
@@ -1514,25 +1490,30 @@
         <v>1413037.21801</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1219897.90823</v>
+        <v>1617801.9602</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1757810.46556</v>
+        <v>1759367.44282</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2124820.65335</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2589419.73149</v>
+        <v>2589899.41719</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2193049.9148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2203542.1499</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3929970.181</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>386793.06002</v>
@@ -1541,37 +1522,42 @@
         <v>481717.64022</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>596681.3247299999</v>
+        <v>596681.32473</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>689550.4653399999</v>
+        <v>689550.46534</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>752910.23017</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>815322.2817700001</v>
+        <v>815342.0817699999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>592858.5101000001</v>
+        <v>889478.0756500001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>980057.8704900001</v>
+        <v>980914.1133800001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1094227.4308</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1310141.73406</v>
+        <v>1313595.27869</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1519786.47734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1534100.84438</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1731409.37</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11789.66841</v>
@@ -1589,28 +1575,33 @@
         <v>16676.4973</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>21845.78390999999</v>
+        <v>21845.78391</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>20077.31148</v>
+        <v>24622.01671</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>32465.1809</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>39127.32404000001</v>
+        <v>39127.32404</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>49941.7934</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>55821.41187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56229.20327000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>63845.987</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>196708.40696</v>
@@ -1631,25 +1622,30 @@
         <v>473066.25835</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>309473.35557</v>
+        <v>511248.27912</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>539637.30324</v>
+        <v>539848.98872</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>600268.95066</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>734860.11816</v>
+        <v>735094.19296</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>910206.78347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>912881.6510899999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1081567.906</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>178294.98465</v>
@@ -1667,28 +1663,33 @@
         <v>287243.01078</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>320410.23951</v>
+        <v>320430.03951</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>263307.84305</v>
+        <v>353607.77982</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>407955.38635</v>
+        <v>408599.94376</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>454831.1561</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>525339.8225</v>
+        <v>528559.29233</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>553758.282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>564989.99002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>585995.477</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>247866.35277</v>
@@ -1697,7 +1698,7 @@
         <v>327653.86615</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>383086.77369</v>
+        <v>383086.7736900001</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>301945.8874600001</v>
@@ -1706,28 +1707,33 @@
         <v>439325.73062</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>597714.93624</v>
+        <v>597695.13624</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>627039.3981300001</v>
+        <v>728323.88455</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>777752.59507</v>
+        <v>778453.3294399999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1030593.22255</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1279277.99743</v>
+        <v>1276304.1385</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>673263.4374599999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>669441.3055199999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2198560.811</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>118655.08534</v>
@@ -1748,25 +1754,30 @@
         <v>387915.4255</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>308668.87783</v>
+        <v>433732.61663</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>420276.16958</v>
+        <v>420464.38348</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>736038.28185</v>
+        <v>736038.2818499999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2092304.13646</v>
+        <v>2100407.34151</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>893758.95422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>903291.0972899999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1914386.074</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2010.32512</v>
@@ -1787,7 +1798,7 @@
         <v>1527.57244</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2301.91234</v>
+        <v>2560.43475</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>388.49796</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1161.70946</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>196.999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>20311.701</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>11487.31858</v>
@@ -1865,25 +1886,30 @@
         <v>10646.63479</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8057.29322</v>
+        <v>9048.49309</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11271.74105</v>
+        <v>11420.07474</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>22094.4014</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>50812.82565999999</v>
+        <v>51244.84324</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41406.40664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>41943.66608</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>381409.568</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>29.54091</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>56.75492</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>535.927</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3309.76911</v>
@@ -1943,25 +1974,30 @@
         <v>9806.48149</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1823.54175</v>
+        <v>6553.40794</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3562.1707</v>
+        <v>3577.1407</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>5176.96897</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5510.679899999999</v>
+        <v>5540.679899999999</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>16462.1692</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3613.98</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>283.5937</v>
@@ -1982,7 +2018,7 @@
         <v>644.5701200000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>416.0165099999999</v>
+        <v>1641.83876</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1387.98056</v>
@@ -1991,19 +2027,24 @@
         <v>2596.40136</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>416314.7675600001</v>
+        <v>416318.2958600001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>1294.61557</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1977.915</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>68749.18489999999</v>
+        <v>68749.18490000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>93721.10372</v>
@@ -2018,28 +2059,33 @@
         <v>170765.47889</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>293947.52408</v>
+        <v>293947.5240800001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>220424.70433</v>
+        <v>298011.69735</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>264533.8135</v>
+        <v>264541.35176</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>524953.66637</v>
+        <v>524953.6663700001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1408881.64734</v>
+        <v>1413823.39625</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>607728.29945</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>615028.1137600001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1290965.211</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>7758.01071</v>
@@ -2060,10 +2106,10 @@
         <v>18263.48984</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>41697.42284</v>
+        <v>44527.46579</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>68884.22648</v>
+        <v>68884.22647999998</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>58225.86952</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>126770.82738</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>95569.088</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>44.3297</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>161.94501</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>9.993</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>24983.01261</v>
@@ -2138,31 +2194,36 @@
         <v>52760.09995</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>33483.81849000001</v>
+        <v>70925.11060000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>69792.99915</v>
+        <v>69810.37109999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>121510.61139</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>100663.03053</v>
+        <v>103358.94079</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>98716.22659000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>100411.29591</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>119795.692</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>78440.46379000001</v>
+        <v>78440.46378999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>93719.69952000001</v>
+        <v>93719.69951999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>141195.87915</v>
@@ -2177,25 +2238,30 @@
         <v>388983.04466</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>453116.10683</v>
+        <v>550327.03064</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>550864.30684</v>
+        <v>550908.6587400001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>797305.56371</v>
+        <v>797305.5637100001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1938828.5556</v>
+        <v>1940010.94907</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>933462.2017100001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>941087.26193</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1712306.629</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>397.36256</v>
@@ -2207,10 +2273,10 @@
         <v>3278.69367</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2248.794549999999</v>
+        <v>2248.79455</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>998.8904700000001</v>
+        <v>998.8904699999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1719.67099</v>
@@ -2219,7 +2285,7 @@
         <v>2033.65085</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1512.49509</v>
+        <v>1512.50109</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1828.32804</v>
@@ -2230,14 +2296,19 @@
       <c r="M37" s="48" t="n">
         <v>4327.57488</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>5500.851</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9419.955540000001</v>
+        <v>9419.955539999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>17364.49747</v>
@@ -2255,7 +2326,7 @@
         <v>24552.67799</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13875.99969</v>
+        <v>19895.91624</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>22453.60961</v>
@@ -2264,16 +2335,21 @@
         <v>21367.36244</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>38432.4474</v>
+        <v>38618.978</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>62717.56582</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>62805.52042</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>24146.121</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>5.4796</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>2155.60459</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>392.264</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>50898.16350999999</v>
+        <v>50898.16351000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>60921.27281</v>
@@ -2333,10 +2414,10 @@
         <v>307357.06059</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>383542.38867</v>
+        <v>436898.0001600001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>419137.51493</v>
+        <v>419138.1674399999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>674145.0292400001</v>
@@ -2345,13 +2426,18 @@
         <v>1711405.83961</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>685072.86954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>692609.97516</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1499447.428</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>6991.24426</v>
@@ -2372,7 +2458,7 @@
         <v>20918.8223</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>45632.07915000001</v>
+        <v>48181.78556</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>70213.02458</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>115195.50957</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>103388.432</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>373.9962</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10728.25832</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7255.890540000001</v>
+        <v>7255.89054</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>14218.71498</v>
@@ -2450,25 +2546,30 @@
         <v>33662.43945000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>8018.132650000001</v>
+        <v>43303.82201</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>37538.86762</v>
+        <v>37582.56101</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>41311.38236</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>67872.8306</v>
+        <v>68868.69347</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>63619.08111000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>63619.08111</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>79431.533</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>147774.21874</v>
@@ -2489,25 +2590,30 @@
         <v>234315.51187</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>208095.81012</v>
+        <v>329093.31438</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>448777.87735</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>608178.4369899998</v>
+        <v>608178.43699</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>995476.67619</v>
+        <v>995479.822</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1049568.96564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1058310.08458</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1338349.252</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>128517.84872</v>
@@ -2528,7 +2634,7 @@
         <v>222420.48214</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>199810.71627</v>
+        <v>312548.80444</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>436292.99625</v>
@@ -2537,16 +2643,21 @@
         <v>553727.8276699999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>895479.64813</v>
+        <v>895482.79394</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>952247.80965</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>960988.92859</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1113209.858</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>19256.37002</v>
@@ -2555,7 +2666,7 @@
         <v>16496.86866</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>69362.75083999999</v>
+        <v>69362.75084000002</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>18281.48866</v>
@@ -2567,7 +2678,7 @@
         <v>11895.02973</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8285.093849999999</v>
+        <v>16544.50994</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>12484.8811</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>97321.15599000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>225139.394</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>140306.75558</v>
@@ -2600,31 +2716,36 @@
         <v>182171.79939</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>71861.14576</v>
+        <v>71861.14575999998</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>362331.80521</v>
+        <v>362312.00521</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>274496.35901</v>
+        <v>282636.15616</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>198386.58046</v>
+        <v>199231.17683</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>361147.5037</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>437276.9021000001</v>
+        <v>441220.70894</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-416008.7756700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-426664.9436999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1062291.004</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>28022.28845</v>
@@ -2636,34 +2757,39 @@
         <v>62075.01035</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>44250.7232</v>
+        <v>44250.72319999999</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>37153.76519</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>63281.25605</v>
+        <v>63329.25605</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>38345.29655</v>
+        <v>45135.68742999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>65037.80986</v>
+        <v>65137.80289</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>69543.09495</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>92535.34673000002</v>
+        <v>92591.82056000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>100017.03717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>110848.81688</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>180739.199</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>524.69302</v>
@@ -2678,19 +2804,19 @@
         <v>1118.81754</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>963.62895</v>
+        <v>963.6289499999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1138.94506</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>620.8376999999999</v>
+        <v>833.3649399999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>1598.50421</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>934.5358799999999</v>
+        <v>934.53588</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>912.80079</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>4498.11941</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1976.221</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>27497.59543</v>
@@ -2711,7 +2842,7 @@
         <v>19551.50169</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>61921.5654</v>
+        <v>61921.56540000001</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>43131.90566</v>
@@ -2720,40 +2851,45 @@
         <v>36190.13624</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>62142.31099000001</v>
+        <v>62190.31099000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>37724.45885</v>
+        <v>44302.32249</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>63439.30565</v>
+        <v>63539.29868</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>68608.55907</v>
+        <v>68608.55906999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>91622.54594</v>
+        <v>91679.01977</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>95518.91776</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>106350.69747</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>178762.978</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>51031.13466</v>
+        <v>51031.13466000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>52992.27288</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>90640.42485000001</v>
+        <v>90640.42485</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>79626.37970999999</v>
+        <v>79626.37971000001</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>62381.64586</v>
@@ -2762,25 +2898,30 @@
         <v>95264.63831000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>39983.66233</v>
+        <v>60611.42646</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>123068.31047</v>
+        <v>123073.38157</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>89904.45223</v>
+        <v>89904.45223000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>145377.3209</v>
+        <v>145580.65829</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>234181.11134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>236486.61056</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>572612.9</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>29472.67454</v>
@@ -2801,28 +2942,33 @@
         <v>23734.41023</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>16149.05599</v>
+        <v>24854.53822</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>43229.17348</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>36642.68613</v>
+        <v>36642.68612999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>60804.23342999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>146548.04466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>147890.26426</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>155580.77</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4286.930520000001</v>
+        <v>4286.93052</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>2614.69223</v>
@@ -2840,25 +2986,30 @@
         <v>5556.500529999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1600.30828</v>
+        <v>1970.6377</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4525.91814</v>
+        <v>4525.918140000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2409.525900000001</v>
+        <v>2409.5259</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8868.37866</v>
+        <v>8885.90135</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2243.70986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2424.65857</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4524.637</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>17271.5296</v>
@@ -2867,10 +3018,10 @@
         <v>29588.95904</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>53374.39972000001</v>
+        <v>53374.39972</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>53952.91616</v>
+        <v>53952.91615999999</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>27213.66269</v>
@@ -2879,25 +3030,30 @@
         <v>65973.72755</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22234.29806</v>
+        <v>33786.25054</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>75313.21884999999</v>
+        <v>75318.28995000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>50852.2402</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>75704.70881</v>
+        <v>75890.52351</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>85389.35681999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>86171.68772999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>412507.493</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>117297.90937</v>
@@ -2915,28 +3071,33 @@
         <v>46633.26508999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>330348.4229499999</v>
+        <v>330376.62295</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>272857.99323</v>
+        <v>267160.41713</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>140356.07985</v>
+        <v>141295.59815</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>340786.14642</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>384434.92793</v>
+        <v>388231.87121</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-550172.84984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-552302.7373799999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>670417.303</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>25952.20267</v>
@@ -2957,7 +3118,7 @@
         <v>62359.83601000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>67283.01421000001</v>
+        <v>70826.35466</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>63819.44683</v>
@@ -2966,16 +3127,21 @@
         <v>68119.87534999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>54404.12251</v>
+        <v>55190.86757</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29173.56364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>31203.1037</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>95168.133</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>91345.7067</v>
@@ -2990,28 +3156,31 @@
         <v>105270.65868</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7051.266670000005</v>
+        <v>7051.266669999995</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>267988.58694</v>
+        <v>268016.78694</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>205574.97902</v>
+        <v>196334.06247</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>76536.63301999999</v>
+        <v>77476.15132</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>272666.27107</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>330030.8054199999</v>
+        <v>333041.00364</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-579346.4134799999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-583505.8410799999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>575249.17</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>859</v>
@@ -3044,28 +3216,31 @@
         <v>774</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>570</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>522</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>